--- a/biology/Botanique/Xylosma/Xylosma.xlsx
+++ b/biology/Botanique/Xylosma/Xylosma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylosma est un genre de plantes à fleurs de la famille des Salicaceae, comprenant une centaine d'espèces d'arbustes répartis sur les régions tropicales des Amériques et d'Asie.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des arbustes ou petits arbres, généralement dioïques, rarement polygames ; le tronc et les branches sont généralement épineux. Les feuilles sont alternes, stipulées, généralement pétiolées ; le limbe foliaire est à nervures pennées, au bord dentelé, rarement entier, à dents glandulaires[3]. 
-Appareil reproducteur
-Les fleurs sont hypogynes, petites, en faisceaux axillaires, en racèmes courts ou en panicules, rudiments de sexe opposé généralement absents. Les bractées sont petites, persistantes ou caduques ; les pédicelles sont articulés à la base. Les sépales sont par 4 ou 5, imbriqués, libres ou connus à la base seulement. Les pétales sont absents. Le disque est extrastaminal, ou dans les fleurs femelles extragynoecial, composé de plusieurs petites glandes étroitement serrées ou connues (généralement dans les fleurs staminées) ou annulaires (souvent dans les fleurs pistillées). Les fleurs contiennent 10 étamines voire plus, exsertées ; les filaments sont libres, filiformes ; les anthères sont petites, basifiées, parfois apiculées par extension du conjonctif. Les fleurs sont pistillées : un ovaire supérieur est à un emplacement ; il y a entre 2 et 6 placentas, chacun avec deux à plusieurs ovules. Les styles sont par 2 ou 3 (ou 4), souvent très courts, réunis dans la partie inférieure seulement, ou complètement réunis pour former une seule colonne de style; ils sont parfois absents. Les stigmates sont semi-lunés, voire en forme de U[3].
-Les fruits sont des baies petites, d'environ 1 cm ou moins, à péricarpe finement coriace, noirâtre une fois séché ; le disque et le calice sont souvent persistants à la base ; les styles et/ou les stigmates persistants au sommet. Les graines sont peu nombreuses[3].
-Confusions possibles
-En Nouvelle-Calédonie, les genres Lasiochlamys et Xylosma n'étant pas toujours faciles à différencier morphologiquement, la propriété d'accumuler le nickel que possèdent de nombreux Xylosma pourrait se révéler utile pour préciser l'appartenance d'une espèce à l'un ou l'autre de ces deux genres[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes ou petits arbres, généralement dioïques, rarement polygames ; le tronc et les branches sont généralement épineux. Les feuilles sont alternes, stipulées, généralement pétiolées ; le limbe foliaire est à nervures pennées, au bord dentelé, rarement entier, à dents glandulaires. 
 </t>
         </is>
       </c>
@@ -545,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le genre a pour aire de répartition l'Amérique latine, l'Asie du sud-est et du sud, la Nouvelle-Guinée et l'est de l'Australie[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont hypogynes, petites, en faisceaux axillaires, en racèmes courts ou en panicules, rudiments de sexe opposé généralement absents. Les bractées sont petites, persistantes ou caduques ; les pédicelles sont articulés à la base. Les sépales sont par 4 ou 5, imbriqués, libres ou connus à la base seulement. Les pétales sont absents. Le disque est extrastaminal, ou dans les fleurs femelles extragynoecial, composé de plusieurs petites glandes étroitement serrées ou connues (généralement dans les fleurs staminées) ou annulaires (souvent dans les fleurs pistillées). Les fleurs contiennent 10 étamines voire plus, exsertées ; les filaments sont libres, filiformes ; les anthères sont petites, basifiées, parfois apiculées par extension du conjonctif. Les fleurs sont pistillées : un ovaire supérieur est à un emplacement ; il y a entre 2 et 6 placentas, chacun avec deux à plusieurs ovules. Les styles sont par 2 ou 3 (ou 4), souvent très courts, réunis dans la partie inférieure seulement, ou complètement réunis pour former une seule colonne de style; ils sont parfois absents. Les stigmates sont semi-lunés, voire en forme de U.
+Les fruits sont des baies petites, d'environ 1 cm ou moins, à péricarpe finement coriace, noirâtre une fois séché ; le disque et le calice sont souvent persistants à la base ; les styles et/ou les stigmates persistants au sommet. Les graines sont peu nombreuses.
 </t>
         </is>
       </c>
@@ -576,12 +595,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, les genres Lasiochlamys et Xylosma n'étant pas toujours faciles à différencier morphologiquement, la propriété d'accumuler le nickel que possèdent de nombreux Xylosma pourrait se révéler utile pour préciser l'appartenance d'une espèce à l'un ou l'autre de ces deux genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xylosma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylosma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a pour aire de répartition l'Amérique latine, l'Asie du sud-est et du sud, la Nouvelle-Guinée et l'est de l'Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xylosma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylosma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (29 décembre 2020)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (29 décembre 2020) :
 Xylosma acunae Borhidi &amp; O.Muñiz
 Xylosma avilae Sleumer
 Xylosma bahamensis (Britton) Standl.
@@ -684,7 +775,7 @@
 Xylosma velutina (Tul.) Triana &amp; Planch.
 Xylosma venosa N.E.Br.
 Xylosma vincentii Guillaumin
-Selon Tropicos                                           (29 décembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 décembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Xylosma acunae Borhidi &amp; O.Muñiz
 Xylosma albida Lundell
 Xylosma anisophylla Standl.
